--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H2">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I2">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J2">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10502</v>
+        <v>0.384696</v>
       </c>
       <c r="N2">
-        <v>2.21004</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="O2">
-        <v>0.001923002024630407</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="P2">
-        <v>0.00128282364057296</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="Q2">
-        <v>31.59967846203001</v>
+        <v>19.587409083684</v>
       </c>
       <c r="R2">
-        <v>126.39871384812</v>
+        <v>78.349636334736</v>
       </c>
       <c r="S2">
-        <v>6.685455636314199E-05</v>
+        <v>2.101547163269552E-05</v>
       </c>
       <c r="T2">
-        <v>3.298548702562276E-05</v>
+        <v>1.057113300288044E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H3">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I3">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J3">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.016163</v>
       </c>
       <c r="O3">
-        <v>9.37584288794208E-06</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="P3">
-        <v>9.381856664395554E-06</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="Q3">
-        <v>0.1540682832231667</v>
+        <v>0.2743216228048333</v>
       </c>
       <c r="R3">
-        <v>0.9244096993390001</v>
+        <v>1.645929736829</v>
       </c>
       <c r="S3">
-        <v>3.259579598853305E-07</v>
+        <v>2.943216357844962E-07</v>
       </c>
       <c r="T3">
-        <v>2.412374557904566E-07</v>
+        <v>2.220730430334037E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H4">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I4">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J4">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>236.563113</v>
+        <v>272.782435</v>
       </c>
       <c r="N4">
-        <v>709.689339</v>
+        <v>818.347305</v>
       </c>
       <c r="O4">
-        <v>0.4116770241732021</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="P4">
-        <v>0.4119410786826471</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="Q4">
-        <v>6764.871501671345</v>
+        <v>13889.1518112703</v>
       </c>
       <c r="R4">
-        <v>40589.22901002807</v>
+        <v>83334.9108676218</v>
       </c>
       <c r="S4">
-        <v>0.01431224952625186</v>
+        <v>0.01490177055295638</v>
       </c>
       <c r="T4">
-        <v>0.01059231890997778</v>
+        <v>0.01124375897293417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H5">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I5">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J5">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.594178</v>
+        <v>0.5595085</v>
       </c>
       <c r="N5">
-        <v>4.782534</v>
+        <v>1.119017</v>
       </c>
       <c r="O5">
-        <v>0.002774255236666534</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="P5">
-        <v>0.002776034676767823</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="Q5">
-        <v>45.587873713817</v>
+        <v>28.48826573527775</v>
       </c>
       <c r="R5">
-        <v>273.527242282902</v>
+        <v>113.953062941111</v>
       </c>
       <c r="S5">
-        <v>9.644899002179233E-05</v>
+        <v>3.056526454655629E-05</v>
       </c>
       <c r="T5">
-        <v>7.138070496760226E-05</v>
+        <v>1.537483823523543E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.5964765</v>
+        <v>50.9165915</v>
       </c>
       <c r="H6">
-        <v>57.192953</v>
+        <v>101.833183</v>
       </c>
       <c r="I6">
-        <v>0.03476572333614217</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J6">
-        <v>0.02571318923534191</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>335.3650816666666</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="N6">
-        <v>1006.095245</v>
+        <v>1755.696106</v>
       </c>
       <c r="O6">
-        <v>0.583616342722613</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="P6">
-        <v>0.5839906811433476</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="Q6">
-        <v>9590.259676801414</v>
+        <v>29798.0204757809</v>
       </c>
       <c r="R6">
-        <v>57541.55806080849</v>
+        <v>178788.1228546854</v>
       </c>
       <c r="S6">
-        <v>0.02028984430554549</v>
+        <v>0.03197050979758648</v>
       </c>
       <c r="T6">
-        <v>0.01501626289591512</v>
+        <v>0.02412255007741863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>258.8358916666667</v>
+        <v>50.9165915</v>
       </c>
       <c r="H7">
-        <v>776.5076750000001</v>
+        <v>101.833183</v>
       </c>
       <c r="I7">
-        <v>0.3146757258415036</v>
+        <v>0.05315878527790245</v>
       </c>
       <c r="J7">
-        <v>0.3491074991349087</v>
+        <v>0.04009666142558297</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.10502</v>
+        <v>114.1272113333333</v>
       </c>
       <c r="N7">
-        <v>2.21004</v>
+        <v>342.381634</v>
       </c>
       <c r="O7">
-        <v>0.001923002024630407</v>
+        <v>0.1172831515421446</v>
       </c>
       <c r="P7">
-        <v>0.00128282364057296</v>
+        <v>0.1173210976599564</v>
       </c>
       <c r="Q7">
-        <v>286.0188370095</v>
+        <v>5810.968598493503</v>
       </c>
       <c r="R7">
-        <v>1716.113022057</v>
+        <v>34865.81159096102</v>
       </c>
       <c r="S7">
-        <v>0.0006051220578952543</v>
+        <v>0.006234629869544557</v>
       </c>
       <c r="T7">
-        <v>0.0004478433529915651</v>
+        <v>0.004704184330949024</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I8">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J8">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.005387666666666666</v>
+        <v>0.384696</v>
       </c>
       <c r="N8">
-        <v>0.016163</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="O8">
-        <v>9.37584288794208E-06</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="P8">
-        <v>9.381856664395554E-06</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="Q8">
-        <v>1.394521505669444</v>
+        <v>99.57313218060001</v>
       </c>
       <c r="R8">
-        <v>12.550693551025</v>
+        <v>597.4387930836001</v>
       </c>
       <c r="S8">
-        <v>2.950350166139073E-06</v>
+        <v>0.000106832727380117</v>
       </c>
       <c r="T8">
-        <v>3.275276517349309E-06</v>
+        <v>8.060796754415955E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I9">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J9">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>236.563113</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N9">
-        <v>709.689339</v>
+        <v>0.016163</v>
       </c>
       <c r="O9">
-        <v>0.4116770241732021</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="P9">
-        <v>0.4119410786826471</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="Q9">
-        <v>61231.02428879743</v>
+        <v>1.394521505669444</v>
       </c>
       <c r="R9">
-        <v>551079.2185991768</v>
+        <v>12.550693551025</v>
       </c>
       <c r="S9">
-        <v>0.1295447663939726</v>
+        <v>1.496192121090273E-06</v>
       </c>
       <c r="T9">
-        <v>0.1438117197698356</v>
+        <v>1.69337162254904E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I10">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J10">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.594178</v>
+        <v>272.782435</v>
       </c>
       <c r="N10">
-        <v>4.782534</v>
+        <v>818.347305</v>
       </c>
       <c r="O10">
-        <v>0.002774255236666534</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="P10">
-        <v>0.002776034676767823</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="Q10">
-        <v>412.6304841053833</v>
+        <v>70605.88479422955</v>
       </c>
       <c r="R10">
-        <v>3713.67435694845</v>
+        <v>635452.963148066</v>
       </c>
       <c r="S10">
-        <v>0.0008729907802676337</v>
+        <v>0.07575355998616959</v>
       </c>
       <c r="T10">
-        <v>0.0009691345235181996</v>
+        <v>0.08573693643979977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>776.5076750000001</v>
       </c>
       <c r="I11">
-        <v>0.3146757258415036</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J11">
-        <v>0.3491074991349087</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>335.3650816666666</v>
+        <v>0.5595085</v>
       </c>
       <c r="N11">
-        <v>1006.095245</v>
+        <v>1.119017</v>
       </c>
       <c r="O11">
-        <v>0.583616342722613</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="P11">
-        <v>0.5839906811433476</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="Q11">
-        <v>86804.51994705615</v>
+        <v>144.8208814925792</v>
       </c>
       <c r="R11">
-        <v>781240.6795235054</v>
+        <v>868.925288955475</v>
       </c>
       <c r="S11">
-        <v>0.1836498962592019</v>
+        <v>0.0001553793620088543</v>
       </c>
       <c r="T11">
-        <v>0.203875526212046</v>
+        <v>0.0001172376188176674</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>168.738088</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H12">
-        <v>506.214264</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I12">
-        <v>0.2051407166780708</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J12">
-        <v>0.2275871848033678</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.10502</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="N12">
-        <v>2.21004</v>
+        <v>1755.696106</v>
       </c>
       <c r="O12">
-        <v>0.001923002024630407</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="P12">
-        <v>0.00128282364057296</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="Q12">
-        <v>186.45896200176</v>
+        <v>151479.0556974015</v>
       </c>
       <c r="R12">
-        <v>1118.75377201056</v>
+        <v>1363311.501276613</v>
       </c>
       <c r="S12">
-        <v>0.000394486013506063</v>
+        <v>0.1625229648472482</v>
       </c>
       <c r="T12">
-        <v>0.0002919542209572073</v>
+        <v>0.1839414690169059</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>168.738088</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H13">
-        <v>506.214264</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I13">
-        <v>0.2051407166780708</v>
+        <v>0.270234145333997</v>
       </c>
       <c r="J13">
-        <v>0.2275871848033678</v>
+        <v>0.305748719833707</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.005387666666666666</v>
+        <v>114.1272113333333</v>
       </c>
       <c r="N13">
-        <v>0.016163</v>
+        <v>342.381634</v>
       </c>
       <c r="O13">
-        <v>9.37584288794208E-06</v>
+        <v>0.1172831515421446</v>
       </c>
       <c r="P13">
-        <v>9.381856664395554E-06</v>
+        <v>0.1173210976599564</v>
       </c>
       <c r="Q13">
-        <v>0.9091045721146667</v>
+        <v>29540.21850889344</v>
       </c>
       <c r="R13">
-        <v>8.181941149032001</v>
+        <v>265861.966580041</v>
       </c>
       <c r="S13">
-        <v>1.923367129493432E-06</v>
+        <v>0.03169391221906909</v>
       </c>
       <c r="T13">
-        <v>2.135190346478499E-06</v>
+        <v>0.03587077541901698</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H14">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I14">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J14">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>236.563113</v>
+        <v>0.384696</v>
       </c>
       <c r="N14">
-        <v>709.689339</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="O14">
-        <v>0.4116770241732021</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="P14">
-        <v>0.4119410786826471</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="Q14">
-        <v>39917.20737894795</v>
+        <v>49.593548911608</v>
       </c>
       <c r="R14">
-        <v>359254.8664105315</v>
+        <v>297.561293469648</v>
       </c>
       <c r="S14">
-        <v>0.08445171977878617</v>
+        <v>5.320927417525365E-05</v>
       </c>
       <c r="T14">
-        <v>0.09375251040224629</v>
+        <v>4.014772954832742E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H15">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I15">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J15">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>1.594178</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N15">
-        <v>4.782534</v>
+        <v>0.016163</v>
       </c>
       <c r="O15">
-        <v>0.002774255236666534</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="P15">
-        <v>0.002776034676767823</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="Q15">
-        <v>268.998547651664</v>
+        <v>0.6945575476552222</v>
       </c>
       <c r="R15">
-        <v>2420.986928864976</v>
+        <v>6.251017928896999</v>
       </c>
       <c r="S15">
-        <v>0.0005691127074976637</v>
+        <v>7.45195772328128E-07</v>
       </c>
       <c r="T15">
-        <v>0.0006317899170021161</v>
+        <v>8.434033011645768E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>168.738088</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H16">
-        <v>506.214264</v>
+        <v>386.748619</v>
       </c>
       <c r="I16">
-        <v>0.2051407166780708</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J16">
-        <v>0.2275871848033678</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>335.3650816666666</v>
+        <v>272.782435</v>
       </c>
       <c r="N16">
-        <v>1006.095245</v>
+        <v>818.347305</v>
       </c>
       <c r="O16">
-        <v>0.583616342722613</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="P16">
-        <v>0.5839906811433476</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="Q16">
-        <v>56588.86266239719</v>
+        <v>35166.07667456909</v>
       </c>
       <c r="R16">
-        <v>509299.7639615747</v>
+        <v>316494.6900711218</v>
       </c>
       <c r="S16">
-        <v>0.1197234748111514</v>
+        <v>0.03772993577814249</v>
       </c>
       <c r="T16">
-        <v>0.1329087950728157</v>
+        <v>0.04270227176490347</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>214.7823105</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H17">
-        <v>429.564621</v>
+        <v>386.748619</v>
       </c>
       <c r="I17">
-        <v>0.2611182669424459</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J17">
-        <v>0.1931265271191877</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>1.10502</v>
+        <v>0.5595085</v>
       </c>
       <c r="N17">
-        <v>2.21004</v>
+        <v>1.119017</v>
       </c>
       <c r="O17">
-        <v>0.001923002024630407</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="P17">
-        <v>0.00128282364057296</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="Q17">
-        <v>237.3387487487101</v>
+        <v>72.12971323125382</v>
       </c>
       <c r="R17">
-        <v>949.3549949948402</v>
+        <v>432.778279387523</v>
       </c>
       <c r="S17">
-        <v>0.0005021309559983067</v>
+        <v>7.738848644094271E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002477472746102489</v>
+        <v>5.839155056977548E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>214.7823105</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H18">
-        <v>429.564621</v>
+        <v>386.748619</v>
       </c>
       <c r="I18">
-        <v>0.2611182669424459</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J18">
-        <v>0.1931265271191877</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.005387666666666666</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="N18">
-        <v>0.016163</v>
+        <v>1755.696106</v>
       </c>
       <c r="O18">
-        <v>9.37584288794208E-06</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="P18">
-        <v>9.381856664395554E-06</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="Q18">
-        <v>1.1571754948705</v>
+        <v>75445.89381990861</v>
       </c>
       <c r="R18">
-        <v>6.943052969223001</v>
+        <v>679013.0443791775</v>
       </c>
       <c r="S18">
-        <v>2.448203846024093E-06</v>
+        <v>0.0809464403690006</v>
       </c>
       <c r="T18">
-        <v>1.81188539552472E-06</v>
+        <v>0.09161417383172632</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>214.7823105</v>
+        <v>128.9162063333333</v>
       </c>
       <c r="H19">
-        <v>429.564621</v>
+        <v>386.748619</v>
       </c>
       <c r="I19">
-        <v>0.2611182669424459</v>
+        <v>0.1345932382633161</v>
       </c>
       <c r="J19">
-        <v>0.1931265271191877</v>
+        <v>0.1522816824144128</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>236.563113</v>
+        <v>114.1272113333333</v>
       </c>
       <c r="N19">
-        <v>709.689339</v>
+        <v>342.381634</v>
       </c>
       <c r="O19">
-        <v>0.4116770241732021</v>
+        <v>0.1172831515421446</v>
       </c>
       <c r="P19">
-        <v>0.4119410786826471</v>
+        <v>0.1173210976599564</v>
       </c>
       <c r="Q19">
-        <v>50809.57198921259</v>
+        <v>14712.84712449594</v>
       </c>
       <c r="R19">
-        <v>304857.4319352756</v>
+        <v>132415.6241204634</v>
       </c>
       <c r="S19">
-        <v>0.10749639109213</v>
+        <v>0.01578551915978448</v>
       </c>
       <c r="T19">
-        <v>0.0795567499037117</v>
+        <v>0.01786585413436379</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H20">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I20">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J20">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.594178</v>
+        <v>0.384696</v>
       </c>
       <c r="N20">
-        <v>4.782534</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="O20">
-        <v>0.002774255236666534</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="P20">
-        <v>0.002776034676767823</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="Q20">
-        <v>342.401234188269</v>
+        <v>108.812633694804</v>
       </c>
       <c r="R20">
-        <v>2054.407405129614</v>
+        <v>435.250534779216</v>
       </c>
       <c r="S20">
-        <v>0.0007244087194543705</v>
+        <v>0.0001167458547948982</v>
       </c>
       <c r="T20">
-        <v>0.0005361259362866065</v>
+        <v>5.872511358021524E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>214.7823105</v>
+        <v>282.8535615</v>
       </c>
       <c r="H21">
-        <v>429.564621</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I21">
-        <v>0.2611182669424459</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J21">
-        <v>0.1931265271191877</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>335.3650816666666</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N21">
-        <v>1006.095245</v>
+        <v>0.016163</v>
       </c>
       <c r="O21">
-        <v>0.583616342722613</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="P21">
-        <v>0.5839906811433476</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="Q21">
-        <v>72030.48710138786</v>
+        <v>1.5239207048415</v>
       </c>
       <c r="R21">
-        <v>432182.9226083272</v>
+        <v>9.143524229049</v>
       </c>
       <c r="S21">
-        <v>0.1523928879710173</v>
+        <v>1.635025449575716E-06</v>
       </c>
       <c r="T21">
-        <v>0.1127840921191836</v>
+        <v>1.233667637299347E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>26.04865166666667</v>
+        <v>282.8535615</v>
       </c>
       <c r="H22">
-        <v>78.145955</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I22">
-        <v>0.03166824476165348</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J22">
-        <v>0.03513337961219652</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.10502</v>
+        <v>272.782435</v>
       </c>
       <c r="N22">
-        <v>2.21004</v>
+        <v>818.347305</v>
       </c>
       <c r="O22">
-        <v>0.001923002024630407</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="P22">
-        <v>0.00128282364057296</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="Q22">
-        <v>28.7842810647</v>
+        <v>77157.48325439225</v>
       </c>
       <c r="R22">
-        <v>172.7056863882</v>
+        <v>462944.8995263535</v>
       </c>
       <c r="S22">
-        <v>6.089809879315094E-05</v>
+        <v>0.08278281694405128</v>
       </c>
       <c r="T22">
-        <v>4.506992993974974E-05</v>
+        <v>0.06246170799044966</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>26.04865166666667</v>
+        <v>282.8535615</v>
       </c>
       <c r="H23">
-        <v>78.145955</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I23">
-        <v>0.03166824476165348</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J23">
-        <v>0.03513337961219652</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.005387666666666666</v>
+        <v>0.5595085</v>
       </c>
       <c r="N23">
-        <v>0.016163</v>
+        <v>1.119017</v>
       </c>
       <c r="O23">
-        <v>9.37584288794208E-06</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="P23">
-        <v>9.381856664395554E-06</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="Q23">
-        <v>0.1403414522961111</v>
+        <v>158.2589719145227</v>
       </c>
       <c r="R23">
-        <v>1.263073070665</v>
+        <v>633.0358876580908</v>
       </c>
       <c r="S23">
-        <v>2.969164874221578E-07</v>
+        <v>0.0001697971855634352</v>
       </c>
       <c r="T23">
-        <v>3.296163316574248E-07</v>
+        <v>8.541081844260366E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>26.04865166666667</v>
+        <v>282.8535615</v>
       </c>
       <c r="H24">
-        <v>78.145955</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I24">
-        <v>0.03166824476165348</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J24">
-        <v>0.03513337961219652</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>236.563113</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="N24">
-        <v>709.689339</v>
+        <v>1755.696106</v>
       </c>
       <c r="O24">
-        <v>0.4116770241732021</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="P24">
-        <v>0.4119410786826471</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="Q24">
-        <v>6162.150127719306</v>
+        <v>165534.9654979272</v>
       </c>
       <c r="R24">
-        <v>55459.35114947375</v>
+        <v>993209.7929875628</v>
       </c>
       <c r="S24">
-        <v>0.0130370887642661</v>
+        <v>0.1776036512424045</v>
       </c>
       <c r="T24">
-        <v>0.01447288229521516</v>
+        <v>0.1340064014666017</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>26.04865166666667</v>
+        <v>282.8535615</v>
       </c>
       <c r="H25">
-        <v>78.145955</v>
+        <v>565.7071229999999</v>
       </c>
       <c r="I25">
-        <v>0.03166824476165348</v>
+        <v>0.2953094717832492</v>
       </c>
       <c r="J25">
-        <v>0.03513337961219652</v>
+        <v>0.2227463220605765</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.594178</v>
+        <v>114.1272113333333</v>
       </c>
       <c r="N25">
-        <v>4.782534</v>
+        <v>342.381634</v>
       </c>
       <c r="O25">
-        <v>0.002774255236666534</v>
+        <v>0.1172831515421446</v>
       </c>
       <c r="P25">
-        <v>0.002776034676767823</v>
+        <v>0.1173210976599564</v>
       </c>
       <c r="Q25">
-        <v>41.52618741666334</v>
+        <v>32281.28818969649</v>
       </c>
       <c r="R25">
-        <v>373.73568674997</v>
+        <v>193687.729138179</v>
       </c>
       <c r="S25">
-        <v>8.78557938660547E-05</v>
+        <v>0.03463482553098549</v>
       </c>
       <c r="T25">
-        <v>9.753148011550519E-05</v>
+        <v>0.02613284300386498</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>26.04865166666667</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H26">
-        <v>78.145955</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I26">
-        <v>0.03166824476165348</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J26">
-        <v>0.03513337961219652</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>335.3650816666666</v>
+        <v>0.384696</v>
       </c>
       <c r="N26">
-        <v>1006.095245</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="O26">
-        <v>0.583616342722613</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="P26">
-        <v>0.5839906811433476</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="Q26">
-        <v>8735.80819349822</v>
+        <v>12.699570631176</v>
       </c>
       <c r="R26">
-        <v>78622.27374148398</v>
+        <v>76.197423787056</v>
       </c>
       <c r="S26">
-        <v>0.01848210518824075</v>
+        <v>1.362546037644179E-05</v>
       </c>
       <c r="T26">
-        <v>0.02051756629059445</v>
+        <v>1.028075099019576E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>125.5465903333333</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H27">
-        <v>376.639771</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I27">
-        <v>0.1526313224401841</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J27">
-        <v>0.1693322200949974</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>1.10502</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N27">
-        <v>2.21004</v>
+        <v>0.016163</v>
       </c>
       <c r="O27">
-        <v>0.001923002024630407</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="P27">
-        <v>0.00128282364057296</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="Q27">
-        <v>138.73149325014</v>
+        <v>0.1778574598398889</v>
       </c>
       <c r="R27">
-        <v>832.3889595008401</v>
+        <v>1.600717138559</v>
       </c>
       <c r="S27">
-        <v>0.0002935103420744905</v>
+        <v>1.908245437647984E-07</v>
       </c>
       <c r="T27">
-        <v>0.0002172233750485663</v>
+        <v>2.15972843822829E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>125.5465903333333</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H28">
-        <v>376.639771</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I28">
-        <v>0.1526313224401841</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J28">
-        <v>0.1693322200949974</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.005387666666666666</v>
+        <v>272.782435</v>
       </c>
       <c r="N28">
-        <v>0.016163</v>
+        <v>818.347305</v>
       </c>
       <c r="O28">
-        <v>9.37584288794208E-06</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="P28">
-        <v>9.381856664395554E-06</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="Q28">
-        <v>0.6764031798525555</v>
+        <v>9005.084014979819</v>
       </c>
       <c r="R28">
-        <v>6.087628618673</v>
+        <v>81045.75613481835</v>
       </c>
       <c r="S28">
-        <v>1.431047298977994E-06</v>
+        <v>0.009661619199268535</v>
       </c>
       <c r="T28">
-        <v>1.588650617595146E-06</v>
+        <v>0.01093490037094586</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>125.5465903333333</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H29">
-        <v>376.639771</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I29">
-        <v>0.1526313224401841</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J29">
-        <v>0.1693322200949974</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>236.563113</v>
+        <v>0.5595085</v>
       </c>
       <c r="N29">
-        <v>709.689339</v>
+        <v>1.119017</v>
       </c>
       <c r="O29">
-        <v>0.4116770241732021</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="P29">
-        <v>0.4119410786826471</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="Q29">
-        <v>29699.69223578904</v>
+        <v>18.47047464619683</v>
       </c>
       <c r="R29">
-        <v>267297.2301221014</v>
+        <v>110.822847877181</v>
       </c>
       <c r="S29">
-        <v>0.06283480861779546</v>
+        <v>1.981710466714596E-05</v>
       </c>
       <c r="T29">
-        <v>0.06975489740166065</v>
+        <v>1.495250162569391E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>125.5465903333333</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H30">
-        <v>376.639771</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I30">
-        <v>0.1526313224401841</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J30">
-        <v>0.1693322200949974</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.594178</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="N30">
-        <v>4.782534</v>
+        <v>1755.696106</v>
       </c>
       <c r="O30">
-        <v>0.002774255236666534</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="P30">
-        <v>0.002776034676767823</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="Q30">
-        <v>200.1436122844127</v>
+        <v>19319.65907714807</v>
       </c>
       <c r="R30">
-        <v>1801.292510559714</v>
+        <v>173876.9316943326</v>
       </c>
       <c r="S30">
-        <v>0.0004234382455590189</v>
+        <v>0.02072820073111942</v>
       </c>
       <c r="T30">
-        <v>0.0004700721148777941</v>
+        <v>0.0234599196251616</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>125.5465903333333</v>
+        <v>33.01196433333333</v>
       </c>
       <c r="H31">
-        <v>376.639771</v>
+        <v>99.03589299999999</v>
       </c>
       <c r="I31">
-        <v>0.1526313224401841</v>
+        <v>0.03446569913458251</v>
       </c>
       <c r="J31">
-        <v>0.1693322200949974</v>
+        <v>0.0389952327288175</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>335.3650816666666</v>
+        <v>114.1272113333333</v>
       </c>
       <c r="N31">
-        <v>1006.095245</v>
+        <v>342.381634</v>
       </c>
       <c r="O31">
-        <v>0.583616342722613</v>
+        <v>0.1172831515421446</v>
       </c>
       <c r="P31">
-        <v>0.5839906811433476</v>
+        <v>0.1173210976599564</v>
       </c>
       <c r="Q31">
-        <v>42103.94252010987</v>
+        <v>3767.563429998796</v>
       </c>
       <c r="R31">
-        <v>378935.4826809889</v>
+        <v>33908.07086998916</v>
       </c>
       <c r="S31">
-        <v>0.08907813418745611</v>
+        <v>0.004042245814607202</v>
       </c>
       <c r="T31">
-        <v>0.09888843855279279</v>
+        <v>0.004574963507250325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>203.2866083333333</v>
+      </c>
+      <c r="H32">
+        <v>609.859825</v>
+      </c>
+      <c r="I32">
+        <v>0.2122386602069528</v>
+      </c>
+      <c r="J32">
+        <v>0.2401313815369032</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.384696</v>
+      </c>
+      <c r="N32">
+        <v>0.7693920000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.0003953339325349752</v>
+      </c>
+      <c r="P32">
+        <v>0.000263641226651746</v>
+      </c>
+      <c r="Q32">
+        <v>78.2035450794</v>
+      </c>
+      <c r="R32">
+        <v>469.2212704764</v>
+      </c>
+      <c r="S32">
+        <v>8.390514417556902E-05</v>
+      </c>
+      <c r="T32">
+        <v>6.330853198596758E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>203.2866083333333</v>
+      </c>
+      <c r="H33">
+        <v>609.859825</v>
+      </c>
+      <c r="I33">
+        <v>0.2122386602069528</v>
+      </c>
+      <c r="J33">
+        <v>0.2401313815369032</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.005387666666666666</v>
+      </c>
+      <c r="N33">
+        <v>0.016163</v>
+      </c>
+      <c r="O33">
+        <v>5.536650889328026E-06</v>
+      </c>
+      <c r="P33">
+        <v>5.538442232791829E-06</v>
+      </c>
+      <c r="Q33">
+        <v>1.095240483497222</v>
+      </c>
+      <c r="R33">
+        <v>9.857164351474999</v>
+      </c>
+      <c r="S33">
+        <v>1.175091366784614E-06</v>
+      </c>
+      <c r="T33">
+        <v>1.329953784922632E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>203.2866083333333</v>
+      </c>
+      <c r="H34">
+        <v>609.859825</v>
+      </c>
+      <c r="I34">
+        <v>0.2122386602069528</v>
+      </c>
+      <c r="J34">
+        <v>0.2401313815369032</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>272.782435</v>
+      </c>
+      <c r="N34">
+        <v>818.347305</v>
+      </c>
+      <c r="O34">
+        <v>0.2803256409087078</v>
+      </c>
+      <c r="P34">
+        <v>0.2804163382480588</v>
+      </c>
+      <c r="Q34">
+        <v>55453.01602405796</v>
+      </c>
+      <c r="R34">
+        <v>499077.1442165216</v>
+      </c>
+      <c r="S34">
+        <v>0.0594959384481195</v>
+      </c>
+      <c r="T34">
+        <v>0.06733676270902592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>203.2866083333333</v>
+      </c>
+      <c r="H35">
+        <v>609.859825</v>
+      </c>
+      <c r="I35">
+        <v>0.2122386602069528</v>
+      </c>
+      <c r="J35">
+        <v>0.2401313815369032</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.5595085</v>
+      </c>
+      <c r="N35">
+        <v>1.119017</v>
+      </c>
+      <c r="O35">
+        <v>0.0005749804926272826</v>
+      </c>
+      <c r="P35">
+        <v>0.0003834443489458648</v>
+      </c>
+      <c r="Q35">
+        <v>113.7405852986708</v>
+      </c>
+      <c r="R35">
+        <v>682.443511792025</v>
+      </c>
+      <c r="S35">
+        <v>0.0001220330894003482</v>
+      </c>
+      <c r="T35">
+        <v>9.20770212548889E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>203.2866083333333</v>
+      </c>
+      <c r="H36">
+        <v>609.859825</v>
+      </c>
+      <c r="I36">
+        <v>0.2122386602069528</v>
+      </c>
+      <c r="J36">
+        <v>0.2401313815369032</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>585.2320353333333</v>
+      </c>
+      <c r="N36">
+        <v>1755.696106</v>
+      </c>
+      <c r="O36">
+        <v>0.6014153564730961</v>
+      </c>
+      <c r="P36">
+        <v>0.6016099400741544</v>
+      </c>
+      <c r="Q36">
+        <v>118969.8355509268</v>
+      </c>
+      <c r="R36">
+        <v>1070728.519958341</v>
+      </c>
+      <c r="S36">
+        <v>0.1276435894857368</v>
+      </c>
+      <c r="T36">
+        <v>0.1444654260563402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>203.2866083333333</v>
+      </c>
+      <c r="H37">
+        <v>609.859825</v>
+      </c>
+      <c r="I37">
+        <v>0.2122386602069528</v>
+      </c>
+      <c r="J37">
+        <v>0.2401313815369032</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>114.1272113333333</v>
+      </c>
+      <c r="N37">
+        <v>342.381634</v>
+      </c>
+      <c r="O37">
+        <v>0.1172831515421446</v>
+      </c>
+      <c r="P37">
+        <v>0.1173210976599564</v>
+      </c>
+      <c r="Q37">
+        <v>23200.5337104949</v>
+      </c>
+      <c r="R37">
+        <v>208804.8033944541</v>
+      </c>
+      <c r="S37">
+        <v>0.02489201894815378</v>
+      </c>
+      <c r="T37">
+        <v>0.02817247726451125</v>
       </c>
     </row>
   </sheetData>
